--- a/システム開発演習/020-内部_プログラミング設計/022-クラス仕様書/DTOのクラス仕様書(CategoriesDTO) .xlsx
+++ b/システム開発演習/020-内部_プログラミング設計/022-クラス仕様書/DTOのクラス仕様書(CategoriesDTO) .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4873E52-35F9-424A-8C8C-DA2E42B4EF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA0295-8849-4097-9044-810342958915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,19 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各フィールドに対してgetterメソッド、setterメソッドを用意すること。</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>髙木　日向子</t>
     <rPh sb="0" eb="2">
       <t>タカギ</t>
@@ -164,14 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INTEGER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VERCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>categoryId</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -181,6 +160,33 @@
   </si>
   <si>
     <t>CategoriesDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各フィールドに対してgetterメソッド、setterメソッドを用意すること(メソッド仕様は省略)</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1129,7 +1135,7 @@
       <c r="P1" s="60"/>
       <c r="Q1" s="60"/>
       <c r="R1" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S1" s="59"/>
       <c r="T1" s="59"/>
@@ -1146,7 +1152,7 @@
       <c r="AC1" s="60"/>
       <c r="AD1" s="60"/>
       <c r="AE1" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF1" s="59"/>
       <c r="AG1" s="59"/>
@@ -1440,7 +1446,7 @@
       <c r="AR2" s="60"/>
       <c r="AS2" s="60"/>
       <c r="AT2" s="59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" s="59"/>
       <c r="AV2" s="59"/>
@@ -1669,7 +1675,7 @@
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
       <c r="G4" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
@@ -1736,7 +1742,7 @@
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
@@ -1933,7 +1939,7 @@
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -1951,7 +1957,7 @@
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R9" s="49"/>
       <c r="S9" s="49"/>
@@ -2000,7 +2006,7 @@
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -2018,7 +2024,7 @@
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R10" s="49"/>
       <c r="S10" s="49"/>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
